--- a/GOODLY/1.Power Query Tricks n Tips/101.Advanced Grouping Tricks In Power Query/Advanced-Grouping-Tricks.xlsx
+++ b/GOODLY/1.Power Query Tricks n Tips/101.Advanced Grouping Tricks In Power Query/Advanced-Grouping-Tricks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Excel\POWER QUERY\GoodlyPQ\1.Power Query Tricks n Tips\101.Advanced Grouping Tricks In Power Query\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB_REPOSITORY\PowerBI\GOODLY\1.Power Query Tricks n Tips\101.Advanced Grouping Tricks In Power Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488723D2-C038-41AE-8A5D-DA5509A6EC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE938123-3692-4D2E-822F-8D9A0CA70F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{A13A6579-1EAF-4362-9D59-24B812FF1B07}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A13A6579-1EAF-4362-9D59-24B812FF1B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -985,21 +985,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A717BFF-D915-4F65-8FAF-C8C441FF1BCF}">
   <dimension ref="B2:L1083"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A939" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L1083"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>39239</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>39403</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>38539</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>39027</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>39528</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>38519</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>38788</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>38937</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>39335</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>39402</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>39057</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>38794</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>39419</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>38724</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>38615</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>39008</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>38992</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>38915</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>38858</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>39441</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>39613</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>39208</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>39621</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>38587</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>39188</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>39488</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>39427</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>39069</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>39558</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>39100</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>38586</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>39595</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>38681</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>39133</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="1">
         <v>39081</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="1">
         <v>38894</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>39537</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="1">
         <v>39101</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="1">
         <v>39190</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="1">
         <v>39122</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" s="1">
         <v>39168</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="1">
         <v>39082</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="1">
         <v>38694</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" s="1">
         <v>38567</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="1">
         <v>39200</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48" s="1">
         <v>39590</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49" s="1">
         <v>39145</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" s="1">
         <v>38722</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51" s="1">
         <v>38857</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" s="1">
         <v>38565</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" s="1">
         <v>39509</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" s="1">
         <v>39443</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" s="1">
         <v>38614</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56" s="1">
         <v>39272</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
         <v>39476</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58" s="1">
         <v>39423</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" s="1">
         <v>38855</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" s="1">
         <v>39157</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" s="1">
         <v>38628</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" s="1">
         <v>39115</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" s="1">
         <v>39591</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" s="1">
         <v>39047</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" s="1">
         <v>39509</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
         <v>38516</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67" s="1">
         <v>39525</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
         <v>39200</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
         <v>38986</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" s="1">
         <v>39049</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
         <v>39280</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72" s="1">
         <v>38570</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73" s="1">
         <v>39080</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74" s="1">
         <v>39332</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" s="1">
         <v>39233</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76" s="1">
         <v>39112</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77" s="1">
         <v>38639</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78" s="1">
         <v>38945</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79" s="1">
         <v>39431</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80" s="1">
         <v>39419</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81" s="1">
         <v>38742</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" s="1">
         <v>39523</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" s="1">
         <v>39019</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84" s="1">
         <v>39488</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" s="1">
         <v>39280</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" s="1">
         <v>39443</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" s="1">
         <v>39393</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" s="1">
         <v>39471</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" s="1">
         <v>39582</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90" s="1">
         <v>39029</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" s="1">
         <v>38707</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92" s="1">
         <v>38626</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93" s="1">
         <v>38572</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" s="1">
         <v>39477</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95" s="1">
         <v>39104</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96" s="1">
         <v>39120</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97" s="1">
         <v>39304</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98" s="1">
         <v>39025</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99" s="1">
         <v>39142</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100" s="1">
         <v>38791</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101" s="1">
         <v>39202</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102" s="1">
         <v>39175</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103" s="1">
         <v>39088</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104" s="1">
         <v>39090</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105" s="1">
         <v>39574</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106" s="1">
         <v>39000</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107" s="1">
         <v>38690</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108" s="1">
         <v>38690</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109" s="1">
         <v>38649</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110" s="1">
         <v>39018</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111" s="1">
         <v>39322</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112" s="1">
         <v>39241</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="1">
         <v>38824</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="1">
         <v>38771</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115" s="1">
         <v>39268</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116" s="1">
         <v>39260</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117" s="1">
         <v>39419</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118" s="1">
         <v>38837</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119" s="1">
         <v>39612</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120" s="1">
         <v>38881</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121" s="1">
         <v>38994</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122" s="1">
         <v>39623</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123" s="1">
         <v>39484</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124" s="1">
         <v>38727</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125" s="1">
         <v>39576</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126" s="1">
         <v>39123</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127" s="1">
         <v>38737</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128" s="1">
         <v>39550</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B129" s="1">
         <v>39534</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B130" s="1">
         <v>39256</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B131" s="1">
         <v>38824</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B132" s="1">
         <v>38750</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B133" s="1">
         <v>39160</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B134" s="1">
         <v>39130</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B135" s="1">
         <v>39602</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B136" s="1">
         <v>39580</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B137" s="1">
         <v>38659</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B138" s="1">
         <v>39504</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B139" s="1">
         <v>39050</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B140" s="1">
         <v>38657</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B141" s="1">
         <v>38790</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B142" s="1">
         <v>38808</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B143" s="1">
         <v>39404</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B144" s="1">
         <v>38595</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B145" s="1">
         <v>39412</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B146" s="1">
         <v>39300</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B147" s="1">
         <v>39417</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B148" s="1">
         <v>39292</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B149" s="1">
         <v>39505</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B150" s="1">
         <v>38707</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B151" s="1">
         <v>39252</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B152" s="1">
         <v>39154</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B153" s="1">
         <v>38997</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B154" s="1">
         <v>38867</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B155" s="1">
         <v>39540</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B156" s="1">
         <v>38940</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B157" s="1">
         <v>38673</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B158" s="1">
         <v>38572</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B159" s="1">
         <v>39150</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B160" s="1">
         <v>39412</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B161" s="1">
         <v>39154</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B162" s="1">
         <v>38569</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B163" s="1">
         <v>39157</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B164" s="1">
         <v>39556</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B165" s="1">
         <v>38915</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B166" s="1">
         <v>38818</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B167" s="1">
         <v>39427</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B168" s="1">
         <v>38829</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B169" s="1">
         <v>38601</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B170" s="1">
         <v>39423</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B171" s="1">
         <v>39027</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B172" s="1">
         <v>39301</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B173" s="1">
         <v>39617</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B174" s="1">
         <v>39604</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B175" s="1">
         <v>39575</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B176" s="1">
         <v>39341</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B177" s="1">
         <v>39621</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B178" s="1">
         <v>39621</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B179" s="1">
         <v>39347</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B180" s="1">
         <v>39472</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B181" s="1">
         <v>39002</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B182" s="1">
         <v>38940</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B183" s="1">
         <v>39096</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B184" s="1">
         <v>39534</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B185" s="1">
         <v>39362</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B186" s="1">
         <v>38776</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B187" s="1">
         <v>39116</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B188" s="1">
         <v>39364</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B189" s="1">
         <v>38977</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B190" s="1">
         <v>38888</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B191" s="1">
         <v>38577</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B192" s="1">
         <v>38597</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B193" s="1">
         <v>38717</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B194" s="1">
         <v>39424</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B195" s="1">
         <v>38921</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B196" s="1">
         <v>39280</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B197" s="1">
         <v>39281</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B198" s="1">
         <v>38656</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B199" s="1">
         <v>38806</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B200" s="1">
         <v>39258</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B201" s="1">
         <v>38665</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B202" s="1">
         <v>39584</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B203" s="1">
         <v>39141</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B204" s="1">
         <v>39001</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B205" s="1">
         <v>39459</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B206" s="1">
         <v>39202</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B207" s="1">
         <v>38663</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B208" s="1">
         <v>39260</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B209" s="1">
         <v>38724</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B210" s="1">
         <v>38525</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B211" s="1">
         <v>38510</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B212" s="1">
         <v>38853</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B213" s="1">
         <v>39043</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B214" s="1">
         <v>39144</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B215" s="1">
         <v>39242</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B216" s="1">
         <v>38503</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B217" s="1">
         <v>38533</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="218" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B218" s="1">
         <v>39248</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B219" s="1">
         <v>39324</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B220" s="1">
         <v>39216</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B221" s="1">
         <v>39137</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B222" s="1">
         <v>38848</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B223" s="1">
         <v>39482</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B224" s="1">
         <v>38964</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B225" s="1">
         <v>38788</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B226" s="1">
         <v>38790</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B227" s="1">
         <v>39071</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B228" s="1">
         <v>39006</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B229" s="1">
         <v>39490</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B230" s="1">
         <v>39424</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B231" s="1">
         <v>38867</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="232" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B232" s="1">
         <v>38851</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B233" s="1">
         <v>39332</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="234" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B234" s="1">
         <v>39069</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B235" s="1">
         <v>39599</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="236" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B236" s="1">
         <v>39102</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="237" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B237" s="1">
         <v>39179</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="238" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B238" s="1">
         <v>39426</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B239" s="1">
         <v>38569</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="240" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B240" s="1">
         <v>39048</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="241" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B241" s="1">
         <v>39363</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B242" s="1">
         <v>38631</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="243" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B243" s="1">
         <v>39215</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B244" s="1">
         <v>39406</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B245" s="1">
         <v>39159</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B246" s="1">
         <v>39407</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B247" s="1">
         <v>39292</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B248" s="1">
         <v>39629</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B249" s="1">
         <v>39353</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B250" s="1">
         <v>38910</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B251" s="1">
         <v>39229</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B252" s="1">
         <v>39508</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B253" s="1">
         <v>39030</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="254" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B254" s="1">
         <v>39234</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B255" s="1">
         <v>39243</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="256" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B256" s="1">
         <v>38554</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="257" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B257" s="1">
         <v>39372</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="258" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B258" s="1">
         <v>39216</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="259" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B259" s="1">
         <v>39253</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="260" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B260" s="1">
         <v>39627</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="261" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B261" s="1">
         <v>38720</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="262" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B262" s="1">
         <v>38670</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="263" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B263" s="1">
         <v>38958</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="264" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B264" s="1">
         <v>38789</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="265" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B265" s="1">
         <v>39490</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="266" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B266" s="1">
         <v>38734</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="267" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B267" s="1">
         <v>39142</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="268" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B268" s="1">
         <v>38572</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="269" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B269" s="1">
         <v>39377</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="270" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B270" s="1">
         <v>39571</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B271" s="1">
         <v>38638</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="272" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B272" s="1">
         <v>38593</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B273" s="1">
         <v>39017</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B274" s="1">
         <v>39242</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B275" s="1">
         <v>39225</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B276" s="1">
         <v>39487</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="277" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B277" s="1">
         <v>38691</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B278" s="1">
         <v>38947</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B279" s="1">
         <v>39495</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B280" s="1">
         <v>38672</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="281" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B281" s="1">
         <v>38855</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B282" s="1">
         <v>39276</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="283" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B283" s="1">
         <v>39009</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="284" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B284" s="1">
         <v>38730</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="285" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B285" s="1">
         <v>38650</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B286" s="1">
         <v>39340</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="287" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B287" s="1">
         <v>38995</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="288" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B288" s="1">
         <v>39378</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="289" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B289" s="1">
         <v>38817</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="290" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B290" s="1">
         <v>39019</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="291" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B291" s="1">
         <v>39370</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="292" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B292" s="1">
         <v>38943</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="293" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B293" s="1">
         <v>38515</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B294" s="1">
         <v>38884</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="295" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B295" s="1">
         <v>38551</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="296" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B296" s="1">
         <v>39275</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B297" s="1">
         <v>38655</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="298" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B298" s="1">
         <v>38898</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="299" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B299" s="1">
         <v>39275</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="300" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B300" s="1">
         <v>38831</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="301" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B301" s="1">
         <v>38860</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B302" s="1">
         <v>39205</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="303" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B303" s="1">
         <v>39202</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="304" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B304" s="1">
         <v>38819</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="305" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B305" s="1">
         <v>38964</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="306" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B306" s="1">
         <v>39378</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="307" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B307" s="1">
         <v>38924</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="308" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B308" s="1">
         <v>39630</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="309" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B309" s="1">
         <v>38741</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="310" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B310" s="1">
         <v>39159</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="311" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B311" s="1">
         <v>39149</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="312" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B312" s="1">
         <v>38991</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="313" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B313" s="1">
         <v>39470</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="314" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B314" s="1">
         <v>39250</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="315" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B315" s="1">
         <v>38565</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="316" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B316" s="1">
         <v>38632</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="317" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B317" s="1">
         <v>39232</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="318" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B318" s="1">
         <v>39453</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="319" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B319" s="1">
         <v>38832</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="320" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B320" s="1">
         <v>39044</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="321" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B321" s="1">
         <v>38884</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="322" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B322" s="1">
         <v>39601</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="323" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B323" s="1">
         <v>38718</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="324" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B324" s="1">
         <v>38920</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="325" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B325" s="1">
         <v>39385</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="326" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B326" s="1">
         <v>39316</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="327" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B327" s="1">
         <v>38813</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B328" s="1">
         <v>38990</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="329" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B329" s="1">
         <v>39405</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="330" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B330" s="1">
         <v>38891</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="331" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B331" s="1">
         <v>38685</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="332" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B332" s="1">
         <v>38711</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="333" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B333" s="1">
         <v>39009</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="334" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B334" s="1">
         <v>38819</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="335" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B335" s="1">
         <v>39503</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="336" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B336" s="1">
         <v>39040</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="337" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B337" s="1">
         <v>39029</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B338" s="1">
         <v>39081</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="339" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B339" s="1">
         <v>38866</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="340" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B340" s="1">
         <v>39530</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="341" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B341" s="1">
         <v>38680</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B342" s="1">
         <v>38868</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="343" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B343" s="1">
         <v>38512</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="344" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B344" s="1">
         <v>39208</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="345" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B345" s="1">
         <v>39422</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="346" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B346" s="1">
         <v>38884</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="347" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B347" s="1">
         <v>39003</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="348" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B348" s="1">
         <v>39382</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="349" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B349" s="1">
         <v>39427</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="350" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B350" s="1">
         <v>39064</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="351" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B351" s="1">
         <v>39084</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="352" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B352" s="1">
         <v>39271</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="353" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B353" s="1">
         <v>38828</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="354" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B354" s="1">
         <v>39010</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="355" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B355" s="1">
         <v>39551</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="356" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B356" s="1">
         <v>38778</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="357" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B357" s="1">
         <v>38545</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="358" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B358" s="1">
         <v>39171</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="359" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B359" s="1">
         <v>38589</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="360" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B360" s="1">
         <v>39343</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="361" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B361" s="1">
         <v>38535</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="362" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B362" s="1">
         <v>38932</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="363" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B363" s="1">
         <v>39335</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="364" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B364" s="1">
         <v>39470</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="365" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B365" s="1">
         <v>38697</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B366" s="1">
         <v>38522</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="367" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B367" s="1">
         <v>38641</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="368" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B368" s="1">
         <v>39465</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B369" s="1">
         <v>39059</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="370" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B370" s="1">
         <v>38766</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="371" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B371" s="1">
         <v>39574</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="372" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B372" s="1">
         <v>39540</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="373" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B373" s="1">
         <v>39091</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="374" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B374" s="1">
         <v>38645</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="375" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B375" s="1">
         <v>39515</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="376" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B376" s="1">
         <v>39226</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="377" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B377" s="1">
         <v>39084</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="378" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B378" s="1">
         <v>39458</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="379" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B379" s="1">
         <v>39273</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="380" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B380" s="1">
         <v>39074</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="381" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B381" s="1">
         <v>39469</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="382" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B382" s="1">
         <v>38854</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="383" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B383" s="1">
         <v>39020</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="384" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B384" s="1">
         <v>38710</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="385" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B385" s="1">
         <v>39339</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="386" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B386" s="1">
         <v>39159</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="387" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B387" s="1">
         <v>39076</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="388" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B388" s="1">
         <v>39004</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="389" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B389" s="1">
         <v>39451</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="390" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B390" s="1">
         <v>39268</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="391" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B391" s="1">
         <v>39099</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="392" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B392" s="1">
         <v>39203</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="393" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B393" s="1">
         <v>38637</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="394" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B394" s="1">
         <v>39208</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="395" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B395" s="1">
         <v>39476</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="396" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B396" s="1">
         <v>38937</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="397" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B397" s="1">
         <v>38631</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="398" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B398" s="1">
         <v>38653</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="399" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B399" s="1">
         <v>38636</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="400" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B400" s="1">
         <v>38780</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="401" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B401" s="1">
         <v>39027</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="402" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B402" s="1">
         <v>39143</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="403" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B403" s="1">
         <v>38935</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="404" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B404" s="1">
         <v>39537</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="405" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B405" s="1">
         <v>38811</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="406" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B406" s="1">
         <v>38792</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="407" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B407" s="1">
         <v>39461</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="408" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B408" s="1">
         <v>38683</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="409" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B409" s="1">
         <v>39454</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="410" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B410" s="1">
         <v>39603</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="411" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B411" s="1">
         <v>39433</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="412" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B412" s="1">
         <v>38964</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="413" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B413" s="1">
         <v>38860</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="414" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B414" s="1">
         <v>38975</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="415" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B415" s="1">
         <v>39551</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="416" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B416" s="1">
         <v>39138</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="417" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B417" s="1">
         <v>39090</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="418" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B418" s="1">
         <v>39024</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="419" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B419" s="1">
         <v>39604</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="420" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B420" s="1">
         <v>38730</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="421" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B421" s="1">
         <v>39258</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="422" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B422" s="1">
         <v>39503</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="423" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B423" s="1">
         <v>39128</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="424" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B424" s="1">
         <v>39207</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="425" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B425" s="1">
         <v>39226</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="426" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B426" s="1">
         <v>39441</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="427" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B427" s="1">
         <v>39587</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="428" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B428" s="1">
         <v>38871</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="429" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B429" s="1">
         <v>39310</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="430" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B430" s="1">
         <v>39546</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="431" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B431" s="1">
         <v>38782</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="432" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B432" s="1">
         <v>39188</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="433" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B433" s="1">
         <v>38883</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="434" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B434" s="1">
         <v>38656</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="435" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B435" s="1">
         <v>39102</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="436" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B436" s="1">
         <v>39187</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="437" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B437" s="1">
         <v>39132</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="438" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B438" s="1">
         <v>39031</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="439" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B439" s="1">
         <v>38766</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="440" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B440" s="1">
         <v>39548</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="441" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B441" s="1">
         <v>39114</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="442" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B442" s="1">
         <v>38802</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="443" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B443" s="1">
         <v>38589</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="444" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B444" s="1">
         <v>39045</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="445" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B445" s="1">
         <v>39171</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="446" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B446" s="1">
         <v>38768</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="447" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B447" s="1">
         <v>39436</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="448" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B448" s="1">
         <v>38809</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="449" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B449" s="1">
         <v>38585</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="450" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B450" s="1">
         <v>38875</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="451" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B451" s="1">
         <v>38826</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="452" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B452" s="1">
         <v>39497</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="453" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B453" s="1">
         <v>38754</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="454" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B454" s="1">
         <v>38650</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="455" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B455" s="1">
         <v>39430</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="456" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B456" s="1">
         <v>38954</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="457" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B457" s="1">
         <v>38582</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="458" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B458" s="1">
         <v>39065</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="459" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B459" s="1">
         <v>39408</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="460" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B460" s="1">
         <v>39155</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="461" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B461" s="1">
         <v>38719</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="462" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B462" s="1">
         <v>39436</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="463" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B463" s="1">
         <v>38557</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="464" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B464" s="1">
         <v>39264</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="465" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B465" s="1">
         <v>38792</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="466" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B466" s="1">
         <v>39112</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="467" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B467" s="1">
         <v>39159</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="468" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B468" s="1">
         <v>38833</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="469" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B469" s="1">
         <v>38549</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="470" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B470" s="1">
         <v>38777</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="471" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B471" s="1">
         <v>38502</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="472" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B472" s="1">
         <v>39460</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="473" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B473" s="1">
         <v>39189</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="474" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B474" s="1">
         <v>39591</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="475" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B475" s="1">
         <v>39489</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="476" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B476" s="1">
         <v>38980</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="477" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B477" s="1">
         <v>39494</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="478" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B478" s="1">
         <v>39080</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="479" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B479" s="1">
         <v>39580</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="480" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B480" s="1">
         <v>38534</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="481" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B481" s="1">
         <v>39406</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="482" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B482" s="1">
         <v>39284</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="483" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B483" s="1">
         <v>38616</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="484" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B484" s="1">
         <v>38862</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="485" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B485" s="1">
         <v>39392</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="486" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B486" s="1">
         <v>39419</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="487" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B487" s="1">
         <v>38640</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="488" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B488" s="1">
         <v>38521</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="489" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B489" s="1">
         <v>39152</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="490" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B490" s="1">
         <v>39159</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="491" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B491" s="1">
         <v>38508</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="492" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B492" s="1">
         <v>38533</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="493" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B493" s="1">
         <v>38726</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="494" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B494" s="1">
         <v>39013</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="495" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B495" s="1">
         <v>39536</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="496" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B496" s="1">
         <v>39063</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="497" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B497" s="1">
         <v>38637</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="498" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B498" s="1">
         <v>39274</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="499" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B499" s="1">
         <v>38645</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="500" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B500" s="1">
         <v>38856</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="501" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B501" s="1">
         <v>39379</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="502" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B502" s="1">
         <v>39561</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="503" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B503" s="1">
         <v>39452</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="504" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B504" s="1">
         <v>39050</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="505" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B505" s="1">
         <v>39190</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="506" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B506" s="1">
         <v>39185</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="507" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B507" s="1">
         <v>39283</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="508" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B508" s="1">
         <v>38843</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="509" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B509" s="1">
         <v>38583</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="510" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B510" s="1">
         <v>39496</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="511" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B511" s="1">
         <v>38752</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="512" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B512" s="1">
         <v>38558</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="513" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B513" s="1">
         <v>38828</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="514" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B514" s="1">
         <v>39583</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="515" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B515" s="1">
         <v>39353</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="516" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B516" s="1">
         <v>38732</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="517" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B517" s="1">
         <v>38830</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="518" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B518" s="1">
         <v>38946</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="519" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B519" s="1">
         <v>39259</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="520" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B520" s="1">
         <v>39423</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="521" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B521" s="1">
         <v>39386</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="522" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B522" s="1">
         <v>39548</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="523" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B523" s="1">
         <v>39589</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="524" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B524" s="1">
         <v>38852</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="525" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B525" s="1">
         <v>39342</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="526" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B526" s="1">
         <v>38827</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="527" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B527" s="1">
         <v>38637</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="528" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B528" s="1">
         <v>38677</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="529" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B529" s="1">
         <v>38608</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="530" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B530" s="1">
         <v>39131</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="531" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B531" s="1">
         <v>38532</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="532" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B532" s="1">
         <v>39330</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="533" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B533" s="1">
         <v>38714</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="534" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B534" s="1">
         <v>38913</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="535" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B535" s="1">
         <v>39592</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="536" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B536" s="1">
         <v>39584</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="537" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B537" s="1">
         <v>39077</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="538" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B538" s="1">
         <v>39099</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="539" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B539" s="1">
         <v>38971</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="540" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B540" s="1">
         <v>38539</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="541" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B541" s="1">
         <v>39092</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="542" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B542" s="1">
         <v>38771</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="543" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B543" s="1">
         <v>39206</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="544" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B544" s="1">
         <v>39419</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="545" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B545" s="1">
         <v>39391</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="546" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B546" s="1">
         <v>39207</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="547" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B547" s="1">
         <v>38923</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="548" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B548" s="1">
         <v>39148</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="549" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B549" s="1">
         <v>39468</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="550" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B550" s="1">
         <v>39581</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="551" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B551" s="1">
         <v>39178</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="552" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B552" s="1">
         <v>39602</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="553" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B553" s="1">
         <v>39172</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="554" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B554" s="1">
         <v>38517</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="555" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B555" s="1">
         <v>39255</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="556" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B556" s="1">
         <v>39454</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="557" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B557" s="1">
         <v>39097</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="558" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B558" s="1">
         <v>38643</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="559" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B559" s="1">
         <v>39527</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="560" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B560" s="1">
         <v>38804</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="561" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B561" s="1">
         <v>38879</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="562" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B562" s="1">
         <v>39288</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="563" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B563" s="1">
         <v>38522</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="564" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B564" s="1">
         <v>39417</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="565" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B565" s="1">
         <v>39453</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="566" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B566" s="1">
         <v>38754</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="567" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B567" s="1">
         <v>38829</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="568" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B568" s="1">
         <v>38926</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="569" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B569" s="1">
         <v>39501</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="570" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B570" s="1">
         <v>39332</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="571" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B571" s="1">
         <v>39427</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="572" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B572" s="1">
         <v>39358</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="573" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B573" s="1">
         <v>38740</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="574" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B574" s="1">
         <v>38630</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="575" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B575" s="1">
         <v>39296</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="576" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B576" s="1">
         <v>39306</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="577" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B577" s="1">
         <v>38599</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="578" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B578" s="1">
         <v>39454</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="579" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B579" s="1">
         <v>38526</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="580" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B580" s="1">
         <v>39231</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="581" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B581" s="1">
         <v>39335</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="582" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B582" s="1">
         <v>39214</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="583" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B583" s="1">
         <v>39511</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="584" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B584" s="1">
         <v>38924</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="585" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B585" s="1">
         <v>39337</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="586" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B586" s="1">
         <v>39542</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="587" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B587" s="1">
         <v>38561</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="588" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B588" s="1">
         <v>39330</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="589" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B589" s="1">
         <v>39160</v>
       </c>
@@ -18051,7 +18051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="590" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J590" s="5">
         <v>44136</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="591" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J591" s="5">
         <v>44166</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="592" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J592" s="5">
         <v>44197</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="593" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="593" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J593" s="5">
         <v>44228</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="594" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="594" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J594" s="5">
         <v>44256</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="595" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="595" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J595" s="5">
         <v>44287</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="596" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="596" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J596" s="5">
         <v>44317</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="597" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J597" s="5">
         <v>44348</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="598" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="598" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J598" s="5">
         <v>44378</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="599" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="599" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J599" s="5">
         <v>44409</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="600" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="600" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J600" s="5">
         <v>44440</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="601" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="601" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J601" s="5">
         <v>44470</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="602" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="602" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J602" s="5">
         <v>44501</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="603" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J603" s="5">
         <v>44531</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="604" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="604" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J604" s="5">
         <v>43101</v>
       </c>
@@ -18216,7 +18216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="605" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="605" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J605" s="5">
         <v>43132</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="606" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="606" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J606" s="5">
         <v>43160</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="607" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="607" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J607" s="5">
         <v>43191</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="608" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="608" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J608" s="5">
         <v>43221</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="609" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="609" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J609" s="5">
         <v>43252</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="610" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="610" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J610" s="5">
         <v>43282</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="611" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="611" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J611" s="5">
         <v>43313</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="612" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="612" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J612" s="5">
         <v>43344</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="613" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="613" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J613" s="5">
         <v>43374</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="614" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="614" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J614" s="5">
         <v>43405</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="615" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="615" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J615" s="5">
         <v>43435</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="616" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J616" s="5">
         <v>43466</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="617" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="617" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J617" s="5">
         <v>43497</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="618" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="618" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J618" s="5">
         <v>43525</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="619" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="619" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J619" s="5">
         <v>43556</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="620" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="620" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J620" s="5">
         <v>43586</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="621" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="621" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J621" s="5">
         <v>43617</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="622" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="622" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J622" s="5">
         <v>43647</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="623" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="623" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J623" s="5">
         <v>43678</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="624" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="624" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J624" s="5">
         <v>43709</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="625" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="625" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J625" s="5">
         <v>43739</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="626" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="626" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J626" s="5">
         <v>43770</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="627" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J627" s="5">
         <v>43800</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="628" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J628" s="5">
         <v>43831</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="629" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J629" s="5">
         <v>43862</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="630" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="630" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J630" s="5">
         <v>43891</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="631" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J631" s="5">
         <v>43922</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="632" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J632" s="5">
         <v>43952</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="633" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J633" s="5">
         <v>43983</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="634" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="634" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J634" s="5">
         <v>44013</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="635" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J635" s="5">
         <v>44044</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="636" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J636" s="5">
         <v>44075</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="637" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="637" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J637" s="5">
         <v>44105</v>
       </c>
@@ -18579,7 +18579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="638" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="638" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J638" s="5">
         <v>44136</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="639" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J639" s="5">
         <v>44166</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="640" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="640" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J640" s="5">
         <v>44197</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="641" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="641" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J641" s="5">
         <v>44228</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="642" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="642" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J642" s="5">
         <v>44256</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="643" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="643" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J643" s="5">
         <v>44287</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="644" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="644" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J644" s="5">
         <v>44317</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="645" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="645" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J645" s="5">
         <v>44348</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="646" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="646" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J646" s="5">
         <v>44378</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="647" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="647" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J647" s="5">
         <v>44409</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="648" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="648" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J648" s="5">
         <v>44440</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="649" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="649" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J649" s="5">
         <v>44470</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="650" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="650" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J650" s="5">
         <v>44501</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="651" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="651" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J651" s="5">
         <v>44531</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="652" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="652" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J652" s="5">
         <v>43101</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="653" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="653" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J653" s="5">
         <v>43132</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="654" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="654" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J654" s="5">
         <v>43160</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="655" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="655" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J655" s="5">
         <v>43191</v>
       </c>
@@ -18777,7 +18777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="656" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="656" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J656" s="5">
         <v>43221</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="657" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="657" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J657" s="5">
         <v>43252</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="658" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="658" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J658" s="5">
         <v>43282</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="659" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="659" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J659" s="5">
         <v>43313</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="660" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="660" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J660" s="5">
         <v>43344</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="661" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="661" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J661" s="5">
         <v>43374</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="662" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="662" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J662" s="5">
         <v>43405</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="663" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="663" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J663" s="5">
         <v>43435</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="664" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="664" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J664" s="5">
         <v>43466</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="665" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="665" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J665" s="5">
         <v>43497</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="666" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="666" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J666" s="5">
         <v>43525</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="667" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="667" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J667" s="5">
         <v>43556</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="668" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="668" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J668" s="5">
         <v>43586</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="669" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="669" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J669" s="5">
         <v>43617</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="670" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="670" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J670" s="5">
         <v>43647</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="671" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="671" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J671" s="5">
         <v>43678</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="672" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="672" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J672" s="5">
         <v>43709</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="673" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="673" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J673" s="5">
         <v>43739</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="674" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="674" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J674" s="5">
         <v>43770</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="675" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="675" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J675" s="5">
         <v>43800</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="676" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="676" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J676" s="5">
         <v>43831</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="677" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="677" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J677" s="5">
         <v>43862</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="678" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="678" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J678" s="5">
         <v>43891</v>
       </c>
@@ -19030,7 +19030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="679" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="679" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J679" s="5">
         <v>43922</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="680" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="680" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J680" s="5">
         <v>43952</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="681" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="681" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J681" s="5">
         <v>43983</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="682" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="682" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J682" s="5">
         <v>44013</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="683" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="683" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J683" s="5">
         <v>44044</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="684" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="684" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J684" s="5">
         <v>44075</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="685" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="685" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J685" s="5">
         <v>44105</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="686" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="686" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J686" s="5">
         <v>44136</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="687" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="687" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J687" s="5">
         <v>44166</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="688" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="688" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J688" s="5">
         <v>44197</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="689" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="689" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J689" s="5">
         <v>44228</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="690" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="690" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J690" s="5">
         <v>44256</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="691" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="691" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J691" s="5">
         <v>44287</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="692" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="692" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J692" s="5">
         <v>44317</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="693" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="693" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J693" s="5">
         <v>44348</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="694" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="694" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J694" s="5">
         <v>44378</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="695" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="695" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J695" s="5">
         <v>44409</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="696" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="696" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J696" s="5">
         <v>44440</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="697" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="697" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J697" s="5">
         <v>44470</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="698" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="698" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J698" s="5">
         <v>44501</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="699" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="699" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J699" s="5">
         <v>44531</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="700" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="700" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J700" s="5">
         <v>43101</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="701" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="701" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J701" s="5">
         <v>43132</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="702" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="702" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J702" s="5">
         <v>43160</v>
       </c>
@@ -19294,7 +19294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="703" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="703" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J703" s="5">
         <v>43191</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="704" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="704" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J704" s="5">
         <v>43221</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="705" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="705" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J705" s="5">
         <v>43252</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="706" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="706" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J706" s="5">
         <v>43282</v>
       </c>
@@ -19338,7 +19338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="707" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="707" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J707" s="5">
         <v>43313</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="708" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="708" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J708" s="5">
         <v>43344</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="709" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="709" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J709" s="5">
         <v>43374</v>
       </c>
@@ -19371,7 +19371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="710" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="710" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J710" s="5">
         <v>43405</v>
       </c>
@@ -19382,7 +19382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="711" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="711" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J711" s="5">
         <v>43435</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="712" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="712" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J712" s="5">
         <v>43466</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="713" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="713" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J713" s="5">
         <v>43497</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="714" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="714" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J714" s="5">
         <v>43525</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="715" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="715" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J715" s="5">
         <v>43556</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="716" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="716" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J716" s="5">
         <v>43586</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="717" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="717" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J717" s="5">
         <v>43617</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="718" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="718" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J718" s="5">
         <v>43647</v>
       </c>
@@ -19470,7 +19470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="719" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="719" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J719" s="5">
         <v>43678</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="720" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="720" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J720" s="5">
         <v>43709</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="721" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="721" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J721" s="5">
         <v>43739</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="722" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="722" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J722" s="5">
         <v>43770</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="723" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="723" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J723" s="5">
         <v>43800</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="724" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="724" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J724" s="5">
         <v>43831</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="725" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="725" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J725" s="5">
         <v>43862</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="726" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="726" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J726" s="5">
         <v>43891</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="727" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="727" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J727" s="5">
         <v>43922</v>
       </c>
@@ -19569,7 +19569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="728" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="728" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J728" s="5">
         <v>43952</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="729" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="729" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J729" s="5">
         <v>43983</v>
       </c>
@@ -19591,7 +19591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="730" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="730" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J730" s="5">
         <v>44013</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="731" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="731" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J731" s="5">
         <v>44044</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="732" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="732" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J732" s="5">
         <v>44075</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="733" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="733" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J733" s="5">
         <v>44105</v>
       </c>
@@ -19635,7 +19635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="734" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="734" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J734" s="5">
         <v>44136</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="735" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="735" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J735" s="5">
         <v>44166</v>
       </c>
@@ -19657,7 +19657,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="736" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="736" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J736" s="5">
         <v>44197</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="737" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="737" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J737" s="5">
         <v>44228</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="738" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="738" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J738" s="5">
         <v>44256</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="739" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="739" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J739" s="5">
         <v>44287</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="740" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="740" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J740" s="5">
         <v>44317</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="741" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="741" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J741" s="5">
         <v>44348</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="742" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="742" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J742" s="5">
         <v>44378</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="743" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="743" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J743" s="5">
         <v>44409</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="744" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="744" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J744" s="5">
         <v>44440</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="745" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="745" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J745" s="5">
         <v>44470</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="746" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="746" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J746" s="5">
         <v>44501</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="747" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="747" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J747" s="5">
         <v>44531</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="748" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="748" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J748" s="5">
         <v>43101</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="749" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="749" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J749" s="5">
         <v>43132</v>
       </c>
@@ -19811,7 +19811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="750" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="750" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J750" s="5">
         <v>43160</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="751" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="751" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J751" s="5">
         <v>43191</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="752" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="752" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J752" s="5">
         <v>43221</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="753" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="753" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J753" s="5">
         <v>43252</v>
       </c>
@@ -19855,7 +19855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="754" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="754" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J754" s="5">
         <v>43282</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="755" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="755" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J755" s="5">
         <v>43313</v>
       </c>
@@ -19877,7 +19877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="756" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="756" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J756" s="5">
         <v>43344</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="757" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="757" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J757" s="5">
         <v>43374</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="758" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="758" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J758" s="5">
         <v>43405</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="759" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="759" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J759" s="5">
         <v>43435</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="760" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="760" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J760" s="5">
         <v>43466</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="761" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="761" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J761" s="5">
         <v>43497</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="762" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="762" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J762" s="5">
         <v>43525</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="763" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="763" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J763" s="5">
         <v>43556</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="764" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="764" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J764" s="5">
         <v>43586</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="765" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="765" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J765" s="5">
         <v>43617</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="766" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="766" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J766" s="5">
         <v>43647</v>
       </c>
@@ -19998,7 +19998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="767" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="767" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J767" s="5">
         <v>43678</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="768" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="768" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J768" s="5">
         <v>43709</v>
       </c>
@@ -20020,7 +20020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="769" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="769" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J769" s="5">
         <v>43739</v>
       </c>
@@ -20031,7 +20031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="770" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="770" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J770" s="5">
         <v>43770</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="771" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="771" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J771" s="5">
         <v>43800</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="772" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="772" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J772" s="5">
         <v>43831</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="773" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="773" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J773" s="5">
         <v>43862</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="774" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="774" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J774" s="5">
         <v>43891</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="775" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="775" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J775" s="5">
         <v>43922</v>
       </c>
@@ -20097,7 +20097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="776" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="776" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J776" s="5">
         <v>43952</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="777" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="777" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J777" s="5">
         <v>43983</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="778" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="778" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J778" s="5">
         <v>44013</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="779" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="779" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J779" s="5">
         <v>44044</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="780" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="780" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J780" s="5">
         <v>44075</v>
       </c>
@@ -20152,7 +20152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="781" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="781" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J781" s="5">
         <v>44105</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="782" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="782" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J782" s="5">
         <v>44136</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="783" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="783" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J783" s="5">
         <v>44166</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="784" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="784" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J784" s="5">
         <v>44197</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="785" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="785" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J785" s="5">
         <v>44228</v>
       </c>
@@ -20207,7 +20207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="786" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="786" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J786" s="5">
         <v>44256</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="787" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="787" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J787" s="5">
         <v>44287</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="788" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="788" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J788" s="5">
         <v>44317</v>
       </c>
@@ -20240,7 +20240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="789" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="789" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J789" s="5">
         <v>44348</v>
       </c>
@@ -20251,7 +20251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="790" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="790" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J790" s="5">
         <v>44378</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="791" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="791" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J791" s="5">
         <v>44409</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="792" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="792" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J792" s="5">
         <v>44440</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="793" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="793" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J793" s="5">
         <v>44470</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="794" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="794" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J794" s="5">
         <v>44501</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="795" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="795" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J795" s="5">
         <v>44531</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="796" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="796" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J796" s="5">
         <v>43101</v>
       </c>
@@ -20328,7 +20328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="797" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="797" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J797" s="5">
         <v>43132</v>
       </c>
@@ -20339,7 +20339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="798" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="798" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J798" s="5">
         <v>43160</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="799" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="799" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J799" s="5">
         <v>43191</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="800" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="800" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J800" s="5">
         <v>43221</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="801" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="801" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J801" s="5">
         <v>43252</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="802" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="802" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J802" s="5">
         <v>43282</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="803" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="803" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J803" s="5">
         <v>43313</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="804" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="804" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J804" s="5">
         <v>43344</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="805" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="805" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J805" s="5">
         <v>43374</v>
       </c>
@@ -20427,7 +20427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="806" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="806" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J806" s="5">
         <v>43405</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="807" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="807" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J807" s="5">
         <v>43435</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="808" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="808" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J808" s="5">
         <v>43466</v>
       </c>
@@ -20460,7 +20460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="809" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="809" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J809" s="5">
         <v>43497</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="810" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="810" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J810" s="5">
         <v>43525</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="811" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="811" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J811" s="5">
         <v>43556</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="812" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="812" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J812" s="5">
         <v>43586</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="813" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="813" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J813" s="5">
         <v>43617</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="814" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="814" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J814" s="5">
         <v>43647</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="815" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="815" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J815" s="5">
         <v>43678</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="816" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="816" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J816" s="5">
         <v>43709</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="817" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="817" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J817" s="5">
         <v>43739</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="818" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="818" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J818" s="5">
         <v>43770</v>
       </c>
@@ -20570,7 +20570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="819" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="819" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J819" s="5">
         <v>43800</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="820" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="820" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J820" s="5">
         <v>43831</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="821" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="821" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J821" s="5">
         <v>43862</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="822" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="822" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J822" s="5">
         <v>43891</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="823" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="823" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J823" s="5">
         <v>43922</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="824" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="824" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J824" s="5">
         <v>43952</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="825" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="825" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J825" s="5">
         <v>43983</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="826" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="826" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J826" s="5">
         <v>44013</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="827" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="827" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J827" s="5">
         <v>44044</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="828" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="828" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J828" s="5">
         <v>44075</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="829" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="829" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J829" s="5">
         <v>44105</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="830" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="830" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J830" s="5">
         <v>44136</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="831" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="831" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J831" s="5">
         <v>44166</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="832" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="832" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J832" s="5">
         <v>44197</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="833" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="833" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J833" s="5">
         <v>44228</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="834" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="834" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J834" s="5">
         <v>44256</v>
       </c>
@@ -20746,7 +20746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="835" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="835" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J835" s="5">
         <v>44287</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="836" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="836" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J836" s="5">
         <v>44317</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="837" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="837" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J837" s="5">
         <v>44348</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="838" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="838" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J838" s="5">
         <v>44378</v>
       </c>
@@ -20790,7 +20790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="839" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="839" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J839" s="5">
         <v>44409</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="840" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="840" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J840" s="5">
         <v>44440</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="841" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="841" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J841" s="5">
         <v>44470</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="842" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="842" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J842" s="5">
         <v>44501</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="843" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="843" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J843" s="5">
         <v>44531</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="844" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="844" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J844" s="5">
         <v>43101</v>
       </c>
@@ -20856,7 +20856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="845" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="845" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J845" s="5">
         <v>43132</v>
       </c>
@@ -20867,7 +20867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="846" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="846" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J846" s="5">
         <v>43160</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="847" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="847" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J847" s="5">
         <v>43191</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="848" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="848" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J848" s="5">
         <v>43221</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="849" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="849" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J849" s="5">
         <v>43252</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="850" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="850" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J850" s="5">
         <v>43282</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="851" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="851" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J851" s="5">
         <v>43313</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="852" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="852" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J852" s="5">
         <v>43344</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="853" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="853" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J853" s="5">
         <v>43374</v>
       </c>
@@ -20955,7 +20955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="854" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="854" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J854" s="5">
         <v>43405</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="855" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="855" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J855" s="5">
         <v>43435</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="856" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="856" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J856" s="5">
         <v>43466</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="857" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="857" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J857" s="5">
         <v>43497</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="858" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="858" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J858" s="5">
         <v>43525</v>
       </c>
@@ -21010,7 +21010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="859" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="859" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J859" s="5">
         <v>43556</v>
       </c>
@@ -21021,7 +21021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="860" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="860" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J860" s="5">
         <v>43586</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="861" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="861" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J861" s="5">
         <v>43617</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="862" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="862" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J862" s="5">
         <v>43647</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="863" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="863" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J863" s="5">
         <v>43678</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="864" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="864" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J864" s="5">
         <v>43709</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="865" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="865" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J865" s="5">
         <v>43739</v>
       </c>
@@ -21087,7 +21087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="866" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="866" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J866" s="5">
         <v>43770</v>
       </c>
@@ -21098,7 +21098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="867" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="867" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J867" s="5">
         <v>43800</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="868" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="868" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J868" s="5">
         <v>43831</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="869" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="869" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J869" s="5">
         <v>43862</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="870" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="870" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J870" s="5">
         <v>43891</v>
       </c>
@@ -21142,7 +21142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="871" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="871" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J871" s="5">
         <v>43922</v>
       </c>
@@ -21153,7 +21153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="872" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="872" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J872" s="5">
         <v>43952</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="873" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="873" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J873" s="5">
         <v>43983</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="874" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="874" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J874" s="5">
         <v>44013</v>
       </c>
@@ -21186,7 +21186,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="875" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="875" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J875" s="5">
         <v>44044</v>
       </c>
@@ -21197,7 +21197,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="876" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="876" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J876" s="5">
         <v>44075</v>
       </c>
@@ -21208,7 +21208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="877" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="877" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J877" s="5">
         <v>44105</v>
       </c>
@@ -21219,7 +21219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="878" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="878" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J878" s="5">
         <v>44136</v>
       </c>
@@ -21230,7 +21230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="879" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="879" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J879" s="5">
         <v>44166</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="880" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="880" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J880" s="5">
         <v>44197</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="881" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="881" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J881" s="5">
         <v>44228</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="882" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="882" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J882" s="5">
         <v>44256</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="883" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="883" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J883" s="5">
         <v>44287</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="884" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="884" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J884" s="5">
         <v>44317</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="885" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="885" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J885" s="5">
         <v>44348</v>
       </c>
@@ -21307,7 +21307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="886" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="886" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J886" s="5">
         <v>44378</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="887" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="887" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J887" s="5">
         <v>44409</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="888" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="888" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J888" s="5">
         <v>44440</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="889" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="889" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J889" s="5">
         <v>44470</v>
       </c>
@@ -21351,7 +21351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="890" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="890" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J890" s="5">
         <v>44501</v>
       </c>
@@ -21362,7 +21362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="891" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="891" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J891" s="5">
         <v>44531</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="892" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="892" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J892" s="5">
         <v>43101</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="893" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="893" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J893" s="5">
         <v>43132</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="894" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="894" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J894" s="5">
         <v>43160</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="895" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="895" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J895" s="5">
         <v>43191</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="896" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="896" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J896" s="5">
         <v>43221</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="897" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="897" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J897" s="5">
         <v>43252</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="898" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="898" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J898" s="5">
         <v>43282</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="899" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="899" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J899" s="5">
         <v>43313</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="900" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="900" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J900" s="5">
         <v>43344</v>
       </c>
@@ -21472,7 +21472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="901" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="901" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J901" s="5">
         <v>43374</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="902" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="902" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J902" s="5">
         <v>43405</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="903" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="903" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J903" s="5">
         <v>43435</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="904" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="904" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J904" s="5">
         <v>43466</v>
       </c>
@@ -21516,7 +21516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="905" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="905" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J905" s="5">
         <v>43497</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="906" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="906" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J906" s="5">
         <v>43525</v>
       </c>
@@ -21538,7 +21538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="907" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="907" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J907" s="5">
         <v>43556</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="908" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="908" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J908" s="5">
         <v>43586</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="909" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="909" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J909" s="5">
         <v>43617</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="910" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="910" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J910" s="5">
         <v>43647</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="911" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="911" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J911" s="5">
         <v>43678</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="912" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="912" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J912" s="5">
         <v>43709</v>
       </c>
@@ -21604,7 +21604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="913" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="913" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J913" s="5">
         <v>43739</v>
       </c>
@@ -21615,7 +21615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="914" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="914" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J914" s="5">
         <v>43770</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="915" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="915" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J915" s="5">
         <v>43800</v>
       </c>
@@ -21637,7 +21637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="916" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="916" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J916" s="5">
         <v>43831</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="917" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="917" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J917" s="5">
         <v>43862</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="918" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="918" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J918" s="5">
         <v>43891</v>
       </c>
@@ -21670,7 +21670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="919" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="919" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J919" s="5">
         <v>43922</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="920" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="920" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J920" s="5">
         <v>43952</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="921" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="921" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J921" s="5">
         <v>43983</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="922" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="922" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J922" s="5">
         <v>44013</v>
       </c>
@@ -21714,7 +21714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="923" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="923" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J923" s="5">
         <v>44044</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="924" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="924" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J924" s="5">
         <v>44075</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="925" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="925" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J925" s="5">
         <v>44105</v>
       </c>
@@ -21747,7 +21747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="926" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="926" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J926" s="5">
         <v>44136</v>
       </c>
@@ -21758,7 +21758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="927" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="927" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J927" s="5">
         <v>44166</v>
       </c>
@@ -21769,7 +21769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="928" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="928" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J928" s="5">
         <v>44197</v>
       </c>
@@ -21780,7 +21780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="929" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="929" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J929" s="5">
         <v>44228</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="930" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="930" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J930" s="5">
         <v>44256</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="931" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="931" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J931" s="5">
         <v>44287</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="932" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="932" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J932" s="5">
         <v>44317</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="933" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="933" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J933" s="5">
         <v>44348</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="934" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="934" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J934" s="5">
         <v>44378</v>
       </c>
@@ -21846,7 +21846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="935" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="935" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J935" s="5">
         <v>44409</v>
       </c>
@@ -21857,7 +21857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="936" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="936" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J936" s="5">
         <v>44440</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="937" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="937" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J937" s="5">
         <v>44470</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="938" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="938" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J938" s="5">
         <v>44501</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="939" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="939" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J939" s="5">
         <v>44531</v>
       </c>
@@ -21901,7 +21901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="940" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="940" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J940" s="5">
         <v>43101</v>
       </c>
@@ -21912,7 +21912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="941" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="941" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J941" s="5">
         <v>43132</v>
       </c>
@@ -21923,7 +21923,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="942" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="942" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J942" s="5">
         <v>43160</v>
       </c>
@@ -21934,7 +21934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="943" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="943" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J943" s="5">
         <v>43191</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="944" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="944" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J944" s="5">
         <v>43221</v>
       </c>
@@ -21956,7 +21956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="945" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="945" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J945" s="5">
         <v>43252</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="946" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="946" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J946" s="5">
         <v>43282</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="947" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="947" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J947" s="5">
         <v>43313</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="948" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="948" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J948" s="5">
         <v>43344</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="949" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="949" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J949" s="5">
         <v>43374</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="950" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="950" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J950" s="5">
         <v>43405</v>
       </c>
@@ -22022,7 +22022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="951" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="951" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J951" s="5">
         <v>43435</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="952" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="952" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J952" s="5">
         <v>43466</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="953" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="953" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J953" s="5">
         <v>43497</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="954" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="954" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J954" s="5">
         <v>43525</v>
       </c>
@@ -22066,7 +22066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="955" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="955" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J955" s="5">
         <v>43556</v>
       </c>
@@ -22077,7 +22077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="956" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="956" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J956" s="5">
         <v>43586</v>
       </c>
@@ -22088,7 +22088,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="957" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="957" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J957" s="5">
         <v>43617</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="958" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="958" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J958" s="5">
         <v>43647</v>
       </c>
@@ -22110,7 +22110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="959" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="959" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J959" s="5">
         <v>43678</v>
       </c>
@@ -22121,7 +22121,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="960" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="960" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J960" s="5">
         <v>43709</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="961" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="961" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J961" s="5">
         <v>43739</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="962" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="962" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J962" s="5">
         <v>43770</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="963" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="963" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J963" s="5">
         <v>43800</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="964" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="964" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J964" s="5">
         <v>43831</v>
       </c>
@@ -22176,7 +22176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="965" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="965" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J965" s="5">
         <v>43862</v>
       </c>
@@ -22187,7 +22187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="966" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="966" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J966" s="5">
         <v>43891</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="967" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="967" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J967" s="5">
         <v>43922</v>
       </c>
@@ -22209,7 +22209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="968" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="968" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J968" s="5">
         <v>43952</v>
       </c>
@@ -22220,7 +22220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="969" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="969" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J969" s="5">
         <v>43983</v>
       </c>
@@ -22231,7 +22231,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="970" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="970" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J970" s="5">
         <v>44013</v>
       </c>
@@ -22242,7 +22242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="971" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="971" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J971" s="5">
         <v>44044</v>
       </c>
@@ -22253,7 +22253,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="972" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="972" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J972" s="5">
         <v>44075</v>
       </c>
@@ -22264,7 +22264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="973" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="973" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J973" s="5">
         <v>44105</v>
       </c>
@@ -22275,7 +22275,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="974" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="974" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J974" s="5">
         <v>44136</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="975" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="975" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J975" s="5">
         <v>44166</v>
       </c>
@@ -22297,7 +22297,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="976" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="976" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J976" s="5">
         <v>44197</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="977" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="977" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J977" s="5">
         <v>44228</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="978" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="978" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J978" s="5">
         <v>44256</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="979" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="979" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J979" s="5">
         <v>44287</v>
       </c>
@@ -22341,7 +22341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="980" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="980" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J980" s="5">
         <v>44317</v>
       </c>
@@ -22352,7 +22352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="981" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="981" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J981" s="5">
         <v>44348</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="982" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="982" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J982" s="5">
         <v>44378</v>
       </c>
@@ -22374,7 +22374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="983" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="983" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J983" s="5">
         <v>44409</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="984" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="984" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J984" s="5">
         <v>44440</v>
       </c>
@@ -22396,7 +22396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="985" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="985" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J985" s="5">
         <v>44470</v>
       </c>
@@ -22407,7 +22407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="986" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="986" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J986" s="5">
         <v>44501</v>
       </c>
@@ -22418,7 +22418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="987" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="987" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J987" s="5">
         <v>44531</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="988" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="988" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J988" s="5">
         <v>43101</v>
       </c>
@@ -22440,7 +22440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="989" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="989" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J989" s="5">
         <v>43132</v>
       </c>
@@ -22451,7 +22451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="990" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="990" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J990" s="5">
         <v>43160</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="991" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="991" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J991" s="5">
         <v>43191</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="992" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="992" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J992" s="5">
         <v>43221</v>
       </c>
@@ -22484,7 +22484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="993" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="993" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J993" s="5">
         <v>43252</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="994" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="994" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J994" s="5">
         <v>43282</v>
       </c>
@@ -22506,7 +22506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="995" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="995" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J995" s="5">
         <v>43313</v>
       </c>
@@ -22517,7 +22517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="996" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="996" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J996" s="5">
         <v>43344</v>
       </c>
@@ -22528,7 +22528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="997" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="997" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J997" s="5">
         <v>43374</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="998" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="998" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J998" s="5">
         <v>43405</v>
       </c>
@@ -22550,7 +22550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="999" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="999" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J999" s="5">
         <v>43435</v>
       </c>
@@ -22561,7 +22561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1000" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1000" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1000" s="5">
         <v>43466</v>
       </c>
@@ -22572,7 +22572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1001" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1001" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1001" s="5">
         <v>43497</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1002" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1002" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1002" s="5">
         <v>43525</v>
       </c>
@@ -22594,7 +22594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1003" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1003" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1003" s="5">
         <v>43556</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1004" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1004" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1004" s="5">
         <v>43586</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1005" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1005" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1005" s="5">
         <v>43617</v>
       </c>
@@ -22627,7 +22627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1006" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1006" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1006" s="5">
         <v>43647</v>
       </c>
@@ -22638,7 +22638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1007" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1007" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1007" s="5">
         <v>43678</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1008" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1008" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1008" s="5">
         <v>43709</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1009" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1009" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1009" s="5">
         <v>43739</v>
       </c>
@@ -22671,7 +22671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1010" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1010" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1010" s="5">
         <v>43770</v>
       </c>
@@ -22682,7 +22682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1011" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1011" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1011" s="5">
         <v>43800</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1012" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1012" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1012" s="5">
         <v>43831</v>
       </c>
@@ -22704,7 +22704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1013" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1013" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1013" s="5">
         <v>43862</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1014" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1014" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1014" s="5">
         <v>43891</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1015" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1015" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1015" s="5">
         <v>43922</v>
       </c>
@@ -22737,7 +22737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1016" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1016" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1016" s="5">
         <v>43952</v>
       </c>
@@ -22748,7 +22748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1017" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1017" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1017" s="5">
         <v>43983</v>
       </c>
@@ -22759,7 +22759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1018" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1018" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1018" s="5">
         <v>44013</v>
       </c>
@@ -22770,7 +22770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1019" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1019" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1019" s="5">
         <v>44044</v>
       </c>
@@ -22781,7 +22781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1020" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1020" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1020" s="5">
         <v>44075</v>
       </c>
@@ -22792,7 +22792,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1021" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1021" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1021" s="5">
         <v>44105</v>
       </c>
@@ -22803,7 +22803,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1022" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1022" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1022" s="5">
         <v>44136</v>
       </c>
@@ -22814,7 +22814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1023" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1023" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1023" s="5">
         <v>44166</v>
       </c>
@@ -22825,7 +22825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1024" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1024" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1024" s="5">
         <v>44197</v>
       </c>
@@ -22836,7 +22836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1025" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1025" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1025" s="5">
         <v>44228</v>
       </c>
@@ -22847,7 +22847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1026" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1026" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1026" s="5">
         <v>44256</v>
       </c>
@@ -22858,7 +22858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1027" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1027" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1027" s="5">
         <v>44287</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1028" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1028" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1028" s="5">
         <v>44317</v>
       </c>
@@ -22880,7 +22880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1029" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1029" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1029" s="5">
         <v>44348</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1030" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1030" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1030" s="5">
         <v>44378</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1031" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1031" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1031" s="5">
         <v>44409</v>
       </c>
@@ -22913,7 +22913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1032" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1032" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1032" s="5">
         <v>44440</v>
       </c>
@@ -22924,7 +22924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1033" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1033" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1033" s="5">
         <v>44470</v>
       </c>
@@ -22935,7 +22935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1034" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1034" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1034" s="5">
         <v>44501</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1035" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1035" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1035" s="5">
         <v>44531</v>
       </c>
@@ -22957,7 +22957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1036" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1036" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1036" s="5">
         <v>43101</v>
       </c>
@@ -22968,7 +22968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1037" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1037" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1037" s="5">
         <v>43132</v>
       </c>
@@ -22979,7 +22979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1038" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1038" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1038" s="5">
         <v>43160</v>
       </c>
@@ -22990,7 +22990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1039" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1039" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1039" s="5">
         <v>43191</v>
       </c>
@@ -23001,7 +23001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1040" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1040" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1040" s="5">
         <v>43221</v>
       </c>
@@ -23012,7 +23012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1041" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1041" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1041" s="5">
         <v>43252</v>
       </c>
@@ -23023,7 +23023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1042" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1042" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1042" s="5">
         <v>43282</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1043" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1043" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1043" s="5">
         <v>43313</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1044" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1044" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1044" s="5">
         <v>43344</v>
       </c>
@@ -23056,7 +23056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1045" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1045" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1045" s="5">
         <v>43374</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1046" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1046" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1046" s="5">
         <v>43405</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1047" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1047" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1047" s="5">
         <v>43435</v>
       </c>
@@ -23089,7 +23089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1048" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1048" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1048" s="5">
         <v>43466</v>
       </c>
@@ -23100,7 +23100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1049" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1049" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1049" s="5">
         <v>43497</v>
       </c>
@@ -23111,7 +23111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1050" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1050" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1050" s="5">
         <v>43525</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1051" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1051" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1051" s="5">
         <v>43556</v>
       </c>
@@ -23133,7 +23133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1052" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1052" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1052" s="5">
         <v>43586</v>
       </c>
@@ -23144,7 +23144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1053" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1053" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1053" s="5">
         <v>43617</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1054" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1054" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1054" s="5">
         <v>43647</v>
       </c>
@@ -23166,7 +23166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1055" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1055" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1055" s="5">
         <v>43678</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1056" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1056" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1056" s="5">
         <v>43709</v>
       </c>
@@ -23188,7 +23188,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1057" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1057" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1057" s="5">
         <v>43739</v>
       </c>
@@ -23199,7 +23199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1058" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1058" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1058" s="5">
         <v>43770</v>
       </c>
@@ -23210,7 +23210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1059" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1059" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1059" s="5">
         <v>43800</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1060" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1060" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1060" s="5">
         <v>43831</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1061" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1061" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1061" s="5">
         <v>43862</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1062" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1062" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1062" s="5">
         <v>43891</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1063" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1063" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1063" s="5">
         <v>43922</v>
       </c>
@@ -23265,7 +23265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1064" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1064" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1064" s="5">
         <v>43952</v>
       </c>
@@ -23276,7 +23276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1065" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1065" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1065" s="5">
         <v>43983</v>
       </c>
@@ -23287,7 +23287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1066" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1066" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1066" s="5">
         <v>44013</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1067" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1067" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1067" s="5">
         <v>44044</v>
       </c>
@@ -23309,7 +23309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1068" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1068" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1068" s="5">
         <v>44075</v>
       </c>
@@ -23320,7 +23320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1069" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1069" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1069" s="5">
         <v>44105</v>
       </c>
@@ -23331,7 +23331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1070" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1070" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1070" s="5">
         <v>44136</v>
       </c>
@@ -23342,7 +23342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1071" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1071" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1071" s="5">
         <v>44166</v>
       </c>
@@ -23353,7 +23353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1072" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1072" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1072" s="5">
         <v>44197</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1073" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1073" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1073" s="5">
         <v>44228</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1074" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1074" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1074" s="5">
         <v>44256</v>
       </c>
@@ -23386,7 +23386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1075" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1075" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1075" s="5">
         <v>44287</v>
       </c>
@@ -23397,7 +23397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1076" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1076" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1076" s="5">
         <v>44317</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1077" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1077" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1077" s="5">
         <v>44348</v>
       </c>
@@ -23419,7 +23419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1078" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1078" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1078" s="5">
         <v>44378</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1079" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1079" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1079" s="5">
         <v>44409</v>
       </c>
@@ -23441,7 +23441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1080" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1080" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1080" s="5">
         <v>44440</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1081" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1081" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1081" s="5">
         <v>44470</v>
       </c>
@@ -23463,7 +23463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1082" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1082" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1082" s="5">
         <v>44501</v>
       </c>
@@ -23474,7 +23474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1083" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="1083" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J1083" s="8">
         <v>44531</v>
       </c>
